--- a/data/stressor-response_fixed_sqam.xlsx
+++ b/data/stressor-response_fixed_sqam.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20411DF8-5928-496A-8FB5-92B3749E1580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD8DB07-E2F1-4311-8998-1F9413ADCCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -31,8 +31,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A58816CB-C3E7-4FE5-AC35-2742B350C9F0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Choose either:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>All
+Population Model
+Joe Model</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Stressors</t>
   </si>
@@ -82,9 +128,6 @@
     <t>adult</t>
   </si>
   <si>
-    <t>survival</t>
-  </si>
-  <si>
     <t>VarA</t>
   </si>
   <si>
@@ -93,12 +136,36 @@
   <si>
     <t>VarC</t>
   </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +188,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -175,6 +268,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3213,11 +3312,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3232,7 +3331,7 @@
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3257,13 +3356,19 @@
       <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
@@ -3281,15 +3386,21 @@
         <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
@@ -3307,15 +3418,21 @@
         <v>15</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -3333,7 +3450,13 @@
         <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3342,6 +3465,7 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3363,7 +3487,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -3594,7 +3718,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -3807,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAF00D5-D45D-41B6-ACC4-FCD031672B85}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3821,7 +3945,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
